--- a/odds/THE BEST OF THE BEST 2025 Betting Odds.xlsx
+++ b/odds/THE BEST OF THE BEST 2025 Betting Odds.xlsx
@@ -45,12 +45,12 @@
     <t>Chasing Flowers</t>
   </si>
   <si>
+    <t>Wu-Tangs Killabeez</t>
+  </si>
+  <si>
     <t>Michael's Monstrous Team</t>
   </si>
   <si>
-    <t>Wu-Tangs Killabeez</t>
-  </si>
-  <si>
     <t>Febreze Brothers</t>
   </si>
   <si>
@@ -63,15 +63,15 @@
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
   <si>
+    <t>Dirty Tone and  The Boys</t>
+  </si>
+  <si>
     <t>Ertz When I Pee</t>
   </si>
   <si>
     <t>Crazy Kat</t>
   </si>
   <si>
-    <t>Dirty Tone and  The Boys</t>
-  </si>
-  <si>
     <t>8-3</t>
   </si>
   <si>
@@ -93,136 +93,136 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.4%</t>
-  </si>
-  <si>
-    <t>97.8%</t>
-  </si>
-  <si>
-    <t>88.8%</t>
-  </si>
-  <si>
-    <t>78.5%</t>
-  </si>
-  <si>
-    <t>77.7%</t>
-  </si>
-  <si>
-    <t>67.5%</t>
-  </si>
-  <si>
-    <t>47.2%</t>
-  </si>
-  <si>
-    <t>31.3%</t>
-  </si>
-  <si>
-    <t>11.6%</t>
+    <t>99.6%</t>
+  </si>
+  <si>
+    <t>98.2%</t>
+  </si>
+  <si>
+    <t>87.2%</t>
+  </si>
+  <si>
+    <t>76.8%</t>
+  </si>
+  <si>
+    <t>76.3%</t>
+  </si>
+  <si>
+    <t>65.7%</t>
+  </si>
+  <si>
+    <t>48.1%</t>
+  </si>
+  <si>
+    <t>35.6%</t>
+  </si>
+  <si>
+    <t>12.5%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>-∞</t>
+  </si>
+  <si>
+    <t>-24900</t>
+  </si>
+  <si>
+    <t>-5456</t>
+  </si>
+  <si>
+    <t>-681</t>
+  </si>
+  <si>
+    <t>-331</t>
+  </si>
+  <si>
+    <t>-322</t>
+  </si>
+  <si>
+    <t>-192</t>
+  </si>
+  <si>
+    <t>+108</t>
+  </si>
+  <si>
+    <t>+181</t>
+  </si>
+  <si>
+    <t>+700</t>
+  </si>
+  <si>
+    <t>+∞</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>48.7%</t>
+  </si>
+  <si>
+    <t>36.8%</t>
+  </si>
+  <si>
+    <t>9.5%</t>
+  </si>
+  <si>
+    <t>4.1%</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
   </si>
   <si>
     <t>0.1%</t>
   </si>
   <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-∞</t>
-  </si>
-  <si>
-    <t>-16567</t>
-  </si>
-  <si>
-    <t>-4445</t>
-  </si>
-  <si>
-    <t>-793</t>
-  </si>
-  <si>
-    <t>-365</t>
-  </si>
-  <si>
-    <t>-348</t>
-  </si>
-  <si>
-    <t>-208</t>
-  </si>
-  <si>
-    <t>+112</t>
-  </si>
-  <si>
-    <t>+219</t>
-  </si>
-  <si>
-    <t>+762</t>
+    <t>+105</t>
+  </si>
+  <si>
+    <t>+172</t>
+  </si>
+  <si>
+    <t>+953</t>
+  </si>
+  <si>
+    <t>+2339</t>
+  </si>
+  <si>
+    <t>+16567</t>
+  </si>
+  <si>
+    <t>+49900</t>
   </si>
   <si>
     <t>+99900</t>
   </si>
   <si>
-    <t>+∞</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>46.7%</t>
-  </si>
-  <si>
-    <t>39.9%</t>
-  </si>
-  <si>
-    <t>9.5%</t>
-  </si>
-  <si>
-    <t>3.1%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>+114</t>
-  </si>
-  <si>
-    <t>+151</t>
-  </si>
-  <si>
-    <t>+953</t>
-  </si>
-  <si>
-    <t>+3126</t>
-  </si>
-  <si>
-    <t>+24900</t>
-  </si>
-  <si>
-    <t>+49900</t>
-  </si>
-  <si>
-    <t>56.3%</t>
-  </si>
-  <si>
-    <t>30.6%</t>
-  </si>
-  <si>
-    <t>11.7%</t>
-  </si>
-  <si>
-    <t>1.4%</t>
-  </si>
-  <si>
-    <t>-129</t>
-  </si>
-  <si>
-    <t>+227</t>
-  </si>
-  <si>
-    <t>+755</t>
-  </si>
-  <si>
-    <t>+7043</t>
+    <t>59.8%</t>
+  </si>
+  <si>
+    <t>26.6%</t>
+  </si>
+  <si>
+    <t>12.6%</t>
+  </si>
+  <si>
+    <t>1.0%</t>
+  </si>
+  <si>
+    <t>-149</t>
+  </si>
+  <si>
+    <t>+276</t>
+  </si>
+  <si>
+    <t>+694</t>
+  </si>
+  <si>
+    <t>+9900</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -625,7 +625,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -639,7 +639,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -667,7 +667,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -681,7 +681,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -695,7 +695,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -709,7 +709,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -723,7 +723,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -737,7 +737,7 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -751,7 +751,7 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -779,7 +779,7 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -790,10 +790,10 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -831,10 +831,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -845,10 +845,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -859,10 +859,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -873,136 +873,136 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1013,10 +1013,10 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1104,16 +1104,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1124,10 +1124,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1138,10 +1138,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1152,10 +1152,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1166,10 +1166,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1180,10 +1180,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1194,10 +1194,10 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1208,24 +1208,24 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1236,10 +1236,10 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/odds/THE BEST OF THE BEST 2025 Betting Odds.xlsx
+++ b/odds/THE BEST OF THE BEST 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="64">
   <si>
     <t>Record</t>
   </si>
@@ -30,94 +30,97 @@
     <t>Team</t>
   </si>
   <si>
+    <t>The Upside Down</t>
+  </si>
+  <si>
     <t>Toon Squad</t>
   </si>
   <si>
     <t>Team Rodriguez</t>
   </si>
   <si>
-    <t>The Upside Down</t>
+    <t>Chasing Flowers</t>
   </si>
   <si>
     <t>Is it Hockey Season?</t>
   </si>
   <si>
-    <t>Chasing Flowers</t>
+    <t>Michael's Monstrous Team</t>
+  </si>
+  <si>
+    <t>Febreze Brothers</t>
   </si>
   <si>
     <t>Wu-Tangs Killabeez</t>
   </si>
   <si>
-    <t>Michael's Monstrous Team</t>
-  </si>
-  <si>
-    <t>Febreze Brothers</t>
+    <t>the   jadey bunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
   <si>
     <t>Crunchwrap Crew</t>
   </si>
   <si>
-    <t>the   jadey bunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter Pan + the Lost Boys </t>
+    <t>Ertz When I Pee</t>
   </si>
   <si>
     <t>Dirty Tone and  The Boys</t>
   </si>
   <si>
-    <t>Ertz When I Pee</t>
-  </si>
-  <si>
     <t>Crazy Kat</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.6%</t>
-  </si>
-  <si>
-    <t>98.2%</t>
-  </si>
-  <si>
-    <t>87.2%</t>
-  </si>
-  <si>
-    <t>76.8%</t>
-  </si>
-  <si>
-    <t>76.3%</t>
-  </si>
-  <si>
-    <t>65.7%</t>
-  </si>
-  <si>
-    <t>48.1%</t>
-  </si>
-  <si>
-    <t>35.6%</t>
-  </si>
-  <si>
-    <t>12.5%</t>
+    <t>98.8%</t>
+  </si>
+  <si>
+    <t>98.1%</t>
+  </si>
+  <si>
+    <t>96.6%</t>
+  </si>
+  <si>
+    <t>87.1%</t>
+  </si>
+  <si>
+    <t>62.3%</t>
+  </si>
+  <si>
+    <t>21.3%</t>
+  </si>
+  <si>
+    <t>19.4%</t>
+  </si>
+  <si>
+    <t>16.2%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -126,31 +129,31 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-24900</t>
-  </si>
-  <si>
-    <t>-5456</t>
-  </si>
-  <si>
-    <t>-681</t>
-  </si>
-  <si>
-    <t>-331</t>
-  </si>
-  <si>
-    <t>-322</t>
-  </si>
-  <si>
-    <t>-192</t>
-  </si>
-  <si>
-    <t>+108</t>
-  </si>
-  <si>
-    <t>+181</t>
-  </si>
-  <si>
-    <t>+700</t>
+    <t>-8233</t>
+  </si>
+  <si>
+    <t>-5163</t>
+  </si>
+  <si>
+    <t>-2841</t>
+  </si>
+  <si>
+    <t>-675</t>
+  </si>
+  <si>
+    <t>-165</t>
+  </si>
+  <si>
+    <t>+369</t>
+  </si>
+  <si>
+    <t>+415</t>
+  </si>
+  <si>
+    <t>+517</t>
+  </si>
+  <si>
+    <t>+49900</t>
   </si>
   <si>
     <t>+∞</t>
@@ -159,70 +162,52 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>48.7%</t>
-  </si>
-  <si>
-    <t>36.8%</t>
+    <t>80.0%</t>
   </si>
   <si>
     <t>9.5%</t>
   </si>
   <si>
-    <t>4.1%</t>
+    <t>9.2%</t>
   </si>
   <si>
     <t>0.6%</t>
   </si>
   <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>+105</t>
-  </si>
-  <si>
-    <t>+172</t>
+    <t>0.5%</t>
+  </si>
+  <si>
+    <t>-400</t>
   </si>
   <si>
     <t>+953</t>
   </si>
   <si>
-    <t>+2339</t>
+    <t>+987</t>
   </si>
   <si>
     <t>+16567</t>
   </si>
   <si>
-    <t>+49900</t>
-  </si>
-  <si>
-    <t>+99900</t>
-  </si>
-  <si>
-    <t>59.8%</t>
-  </si>
-  <si>
-    <t>26.6%</t>
-  </si>
-  <si>
-    <t>12.6%</t>
-  </si>
-  <si>
-    <t>1.0%</t>
-  </si>
-  <si>
-    <t>-149</t>
-  </si>
-  <si>
-    <t>+276</t>
-  </si>
-  <si>
-    <t>+694</t>
-  </si>
-  <si>
-    <t>+9900</t>
+    <t>+19900</t>
+  </si>
+  <si>
+    <t>72.7%</t>
+  </si>
+  <si>
+    <t>25.6%</t>
+  </si>
+  <si>
+    <t>1.7%</t>
+  </si>
+  <si>
+    <t>-266</t>
+  </si>
+  <si>
+    <t>+291</t>
+  </si>
+  <si>
+    <t>+5782</t>
   </si>
 </sst>
 </file>
@@ -608,10 +593,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -622,10 +607,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -647,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -703,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -717,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -731,7 +716,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -773,13 +758,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -787,13 +772,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -825,16 +810,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -845,94 +830,94 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -943,52 +928,52 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -996,27 +981,27 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1048,198 +1033,198 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/odds/THE BEST OF THE BEST 2025 Betting Odds.xlsx
+++ b/odds/THE BEST OF THE BEST 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="51">
   <si>
     <t>Record</t>
   </si>
@@ -33,94 +33,85 @@
     <t>The Upside Down</t>
   </si>
   <si>
+    <t>Is it Hockey Season?</t>
+  </si>
+  <si>
     <t>Toon Squad</t>
   </si>
   <si>
+    <t>Febreze Brothers</t>
+  </si>
+  <si>
     <t>Team Rodriguez</t>
   </si>
   <si>
     <t>Chasing Flowers</t>
   </si>
   <si>
-    <t>Is it Hockey Season?</t>
-  </si>
-  <si>
     <t>Michael's Monstrous Team</t>
   </si>
   <si>
-    <t>Febreze Brothers</t>
-  </si>
-  <si>
     <t>Wu-Tangs Killabeez</t>
   </si>
   <si>
+    <t xml:space="preserve">Peter Pan + the Lost Boys </t>
+  </si>
+  <si>
+    <t>Crunchwrap Crew</t>
+  </si>
+  <si>
+    <t>Dirty Tone and  The Boys</t>
+  </si>
+  <si>
+    <t>Ertz When I Pee</t>
+  </si>
+  <si>
+    <t>Crazy Kat</t>
+  </si>
+  <si>
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t xml:space="preserve">Peter Pan + the Lost Boys </t>
-  </si>
-  <si>
-    <t>Crunchwrap Crew</t>
-  </si>
-  <si>
-    <t>Ertz When I Pee</t>
-  </si>
-  <si>
-    <t>Dirty Tone and  The Boys</t>
-  </si>
-  <si>
-    <t>Crazy Kat</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>3-9</t>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>5-8</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>98.8%</t>
-  </si>
-  <si>
-    <t>98.1%</t>
-  </si>
-  <si>
-    <t>96.6%</t>
-  </si>
-  <si>
-    <t>87.1%</t>
-  </si>
-  <si>
-    <t>62.3%</t>
-  </si>
-  <si>
-    <t>21.3%</t>
-  </si>
-  <si>
-    <t>19.4%</t>
-  </si>
-  <si>
-    <t>16.2%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
+    <t>95.6%</t>
+  </si>
+  <si>
+    <t>90.2%</t>
+  </si>
+  <si>
+    <t>82.1%</t>
+  </si>
+  <si>
+    <t>28.7%</t>
+  </si>
+  <si>
+    <t>3.4%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -129,31 +120,19 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-8233</t>
-  </si>
-  <si>
-    <t>-5163</t>
-  </si>
-  <si>
-    <t>-2841</t>
-  </si>
-  <si>
-    <t>-675</t>
-  </si>
-  <si>
-    <t>-165</t>
-  </si>
-  <si>
-    <t>+369</t>
-  </si>
-  <si>
-    <t>+415</t>
-  </si>
-  <si>
-    <t>+517</t>
-  </si>
-  <si>
-    <t>+49900</t>
+    <t>-2173</t>
+  </si>
+  <si>
+    <t>-920</t>
+  </si>
+  <si>
+    <t>-459</t>
+  </si>
+  <si>
+    <t>+248</t>
+  </si>
+  <si>
+    <t>+2841</t>
   </si>
   <si>
     <t>+∞</t>
@@ -162,52 +141,34 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>80.0%</t>
-  </si>
-  <si>
-    <t>9.5%</t>
-  </si>
-  <si>
-    <t>9.2%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
-  </si>
-  <si>
-    <t>-400</t>
-  </si>
-  <si>
-    <t>+953</t>
-  </si>
-  <si>
-    <t>+987</t>
-  </si>
-  <si>
-    <t>+16567</t>
-  </si>
-  <si>
-    <t>+19900</t>
-  </si>
-  <si>
-    <t>72.7%</t>
-  </si>
-  <si>
-    <t>25.6%</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
-    <t>-266</t>
-  </si>
-  <si>
-    <t>+291</t>
-  </si>
-  <si>
-    <t>+5782</t>
+    <t>95.1%</t>
+  </si>
+  <si>
+    <t>4.9%</t>
+  </si>
+  <si>
+    <t>-1941</t>
+  </si>
+  <si>
+    <t>+1941</t>
+  </si>
+  <si>
+    <t>79.8%</t>
+  </si>
+  <si>
+    <t>20.1%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>-395</t>
+  </si>
+  <si>
+    <t>+398</t>
+  </si>
+  <si>
+    <t>+99900</t>
   </si>
 </sst>
 </file>
@@ -593,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -607,10 +568,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -621,10 +582,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -632,13 +593,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -649,10 +610,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -660,13 +621,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -674,13 +635,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -691,10 +652,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -705,10 +666,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -719,10 +680,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -730,13 +691,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -744,13 +705,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -758,13 +719,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -772,13 +733,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -810,170 +771,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -984,24 +945,24 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1033,30 +994,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1064,41 +1025,41 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1109,94 +1070,94 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1207,24 +1168,24 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/odds/THE BEST OF THE BEST 2025 Betting Odds.xlsx
+++ b/odds/THE BEST OF THE BEST 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="29">
   <si>
     <t>Record</t>
   </si>
@@ -30,9 +30,18 @@
     <t>Team</t>
   </si>
   <si>
+    <t xml:space="preserve">Peter Pan + the Lost Boys </t>
+  </si>
+  <si>
+    <t>Michael's Monstrous Team</t>
+  </si>
+  <si>
     <t>The Upside Down</t>
   </si>
   <si>
+    <t>Chasing Flowers</t>
+  </si>
+  <si>
     <t>Is it Hockey Season?</t>
   </si>
   <si>
@@ -45,130 +54,55 @@
     <t>Team Rodriguez</t>
   </si>
   <si>
-    <t>Chasing Flowers</t>
-  </si>
-  <si>
-    <t>Michael's Monstrous Team</t>
+    <t>Dirty Tone and  The Boys</t>
+  </si>
+  <si>
+    <t>Ertz When I Pee</t>
+  </si>
+  <si>
+    <t>Crazy Kat</t>
+  </si>
+  <si>
+    <t>Crunchwrap Crew</t>
   </si>
   <si>
     <t>Wu-Tangs Killabeez</t>
   </si>
   <si>
-    <t xml:space="preserve">Peter Pan + the Lost Boys </t>
-  </si>
-  <si>
-    <t>Crunchwrap Crew</t>
-  </si>
-  <si>
-    <t>Dirty Tone and  The Boys</t>
-  </si>
-  <si>
-    <t>Ertz When I Pee</t>
-  </si>
-  <si>
-    <t>Crazy Kat</t>
-  </si>
-  <si>
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>5-8</t>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>5-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>95.6%</t>
-  </si>
-  <si>
-    <t>90.2%</t>
-  </si>
-  <si>
-    <t>82.1%</t>
-  </si>
-  <si>
-    <t>28.7%</t>
-  </si>
-  <si>
-    <t>3.4%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-2173</t>
-  </si>
-  <si>
-    <t>-920</t>
-  </si>
-  <si>
-    <t>-459</t>
-  </si>
-  <si>
-    <t>+248</t>
-  </si>
-  <si>
-    <t>+2841</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>95.1%</t>
-  </si>
-  <si>
-    <t>4.9%</t>
-  </si>
-  <si>
-    <t>-1941</t>
-  </si>
-  <si>
-    <t>+1941</t>
-  </si>
-  <si>
-    <t>79.8%</t>
-  </si>
-  <si>
-    <t>20.1%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>-395</t>
-  </si>
-  <si>
-    <t>+398</t>
-  </si>
-  <si>
-    <t>+99900</t>
   </si>
 </sst>
 </file>
@@ -554,10 +488,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -565,13 +499,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -579,13 +513,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -593,13 +527,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -610,10 +544,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -621,13 +555,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -635,13 +569,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -652,10 +586,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -666,10 +600,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -677,13 +611,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -691,13 +625,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -705,13 +639,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -719,13 +653,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -733,13 +667,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -771,30 +705,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -805,150 +739,150 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -956,13 +890,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -994,184 +928,184 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1179,13 +1113,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
